--- a/experiments/optics-ajk/sbert/0.1/prediction.xlsx
+++ b/experiments/optics-ajk/sbert/0.1/prediction.xlsx
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
+          <t>AE Locked. Metering disabled</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Accelerator is Over Range</t>
+          <t>APAS has been enabled</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
+          <t>API Automatic Return Home</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Cannot find subject</t>
+          <t>API Automatic Takeoff</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
+          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Paused</t>
+          <t>Accelerator is Over Range</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
+          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -538,17 +538,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AE Locked. Metering disabled</t>
+          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
+          <t>ActiveTrack Flight Ended: Cannot find subject</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
+          <t>ActiveTrack Flight Paused</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -578,17 +578,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
+          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
+          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
+          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Aircraft battery level low. Return to home promptly</t>
+          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Aircraft close to Home Point. go home shifts to landing.</t>
+          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Aircraft Core Board Overheated</t>
+          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
+          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
+          <t>Aircraft Core Board Overheated</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Aircraft flight control locked</t>
+          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
+          <t>Aircraft GPS signal too weak. Home Point not updated</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Aircraft flight control unlocked</t>
+          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak. Home Point not updated</t>
+          <t>Aircraft battery level low. Return to home promptly</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Aircraft close to Home Point. go home shifts to landing.</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
+          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
+          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Fly with caution</t>
+          <t>Aircraft flight control locked</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -748,27 +748,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Aircraft flight control obtained by remote controller A</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
+          <t>Aircraft flight control obtained by remote controller B</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
+          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
+          <t>Aircraft flight control unlocked</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
+          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Aircraft is entering a restricted area</t>
+          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
+          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
+          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
+          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
+          <t>Aircraft in high interference environment. Fly with caution</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
+          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Aircraft is now following you.</t>
+          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
+          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Aircraft is too far away</t>
+          <t>Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -888,17 +888,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
+          <t>Aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
+          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
+          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Aircraft out of Range</t>
+          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
+          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient. Fly with caution</t>
+          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
+          <t>Aircraft is now following you.</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -958,77 +958,77 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Aircraft processor overheated. Automatically returning to home</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Aircraft settings updated to comply with national regulations</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error. Restart aircraft</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Aircraft is returning to the starting point</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Aircraft will automatically descend in nnn</t>
+          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
+          <t>Aircraft is too far away</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
+          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
+          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
+          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Altitude Zone nnn</t>
+          <t>Aircraft out of Range</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak.</t>
+          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
+          <t>Aircraft power insufficient. Fly with caution</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak</t>
+          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
+          <t>Aircraft processor overheated. Automatically returning to home</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
+          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Fly with caution</t>
+          <t>Aircraft settings updated to comply with national regulations</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>APAS has been enabled</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>API Automatic Return Home</t>
+          <t>Aircraft takeoff altitude error. Restart aircraft</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>API Automatic Takeoff</t>
+          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
+          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
+          <t>Aircraft will automatically descend in nnn</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Arrived at destination</t>
+          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Arrived at End Point</t>
+          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Arrived at Start Point. Starting Waypoint Mission</t>
+          <t>Altitude Zone nnn</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Attitude is too large.</t>
+          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Auto Landing in nnn(s)</t>
+          <t>Ambient Light is too weak.</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Auto landing initiated</t>
+          <t>Ambient Light too Weak</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1258,37 +1258,37 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light set to automatic mode</t>
+          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned off</t>
+          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned on</t>
+          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Away and Follow in progress.</t>
+          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Barometer Dead in Air</t>
+          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Barometer initialization failed. Restart aircraft</t>
+          <t>Another aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
+          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Battery cell broken, please replace the battery</t>
+          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Battery cells undervoltage</t>
+          <t>Arrived at End Point</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
+          <t>Arrived at Start Point. Starting Waypoint Mission</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Battery error. Aircraft returning to home automatically</t>
+          <t>Arrived at destination</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1378,27 +1378,27 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
+          <t>At Least Two Waypoints Required</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Battery level low. Charge battery</t>
+          <t>At least two Waypoints are needed</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Battery nnn requires maintenance</t>
+          <t>Attitude is too large.</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1408,47 +1408,47 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
+          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
+          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Battery power low. Check battery status and charge or warm up battery</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
+          <t>Auto Landing in nnn(s)</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Battery Signal Error. Check battery connection.</t>
+          <t>Auto landing initiated</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Battery temperature too low. Fly with caution</t>
+          <t>Auxiliary Bottom Light set to automatic mode</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Battery Voltage Difference too large. Check Battery Status</t>
+          <t>Auxiliary Bottom Light turned off</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
+          <t>Auxiliary Bottom Light turned on</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Battery: Connection Error</t>
+          <t>Away and Follow in progress.</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1508,37 +1508,37 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Battery: Low Voltage Protection</t>
+          <t>Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Battery: Overcurrent During Discharge</t>
+          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
+          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Braking now! Return sticks to midpoints first.</t>
+          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
+          <t>Barometer Dead in Air</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Cache Space Full</t>
+          <t>Barometer initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
+          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Calibration target not far away enough. Please calibrate using infinity</t>
+          <t>Battery Signal Error. Check battery connection.</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Camera busy, cannot enter playback</t>
+          <t>Battery Voltage Difference too large. Check Battery Status</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Camera error. AI Spot-Check failed. Restart camera</t>
+          <t>Battery cell broken, please replace the battery</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
+          <t>Battery cells undervoltage</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Battery error. Aircraft returning to home automatically</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
+          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted</t>
+          <t>Battery level low. Charge battery</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Camera storage full</t>
+          <t>Battery nnn requires maintenance</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
+          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
+          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
+          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Cannot Enter TapFly Cannot fly in that direction</t>
+          <t>Battery power low. Check battery status and charge or warm up battery</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -1718,17 +1718,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Cannot enter the selected flight mode. Try again later.</t>
+          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Cannot exit ActiveTrack</t>
+          <t>Battery temperature too low. Fly with caution</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Cannot Identify Subject</t>
+          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1748,7 +1748,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Cannot send ActiveTrack command</t>
+          <t>Battery: Connection Error</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Cannot start Return to Home due to weak GPS signal</t>
+          <t>Battery: Low Voltage Protection</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Cannot start Self-Timer. Exposure time is too long</t>
+          <t>Battery: Overcurrent During Discharge</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -1778,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Cannot takeoff in a no-fly zone</t>
+          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -1788,7 +1788,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
+          <t>Braking now! Return sticks to midpoints first.</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -1798,7 +1798,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
+          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -1808,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Cannot Track Subject. Cannot Identify Subject</t>
+          <t>Cache Space Full</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
+          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Cannot track subject: Gimbal Tilt too Large</t>
+          <t>Calibration target not far away enough. Please calibrate using infinity</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -1838,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Cannot track subject: No image. Please retry</t>
+          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Capture Failed Cannot enter Pano mode</t>
+          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -1858,17 +1858,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Capture Failed Shooting interrupted</t>
+          <t>Camera Settings ActiveTrack Optimized</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
+          <t>Camera Settings Adjusted</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -1878,17 +1878,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
+          <t>Camera Settings Adjusted to ActiveTrack</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
+          <t>Camera busy, cannot enter playback</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Capture Failed. Shooting is currently not permitted</t>
+          <t>Camera error. AI Spot-Check failed. Restart camera</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
+          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
+          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -1928,7 +1928,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
+          <t>Camera storage full</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -1938,27 +1938,27 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
+          <t>Cancel Landing Failed</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Command Failed</t>
+          <t>Cancel Return-to-Home Failed</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Command Timeout</t>
+          <t>Cannot Enter TapFly Cannot fly in that direction</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -1968,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -1978,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Compass error, calibration required</t>
+          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -1988,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
+          <t>Cannot Track Subject. Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -1998,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Redundancy Switch</t>
+          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2008,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Compass Error. Exit P-GPS Mode</t>
+          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Compass initialization failed. Restart aircraft</t>
+          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude : 98ft</t>
+          <t>Cannot enter the selected flight mode. Try again later.</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2048,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude: nnn</t>
+          <t>Cannot exit ActiveTrack</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Compass Redundancy Switch</t>
+          <t>Cannot send ActiveTrack command</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
+          <t>Cannot start Return to Home due to weak GPS signal</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Cannot start Self-Timer. Exposure time is too long</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2088,27 +2088,27 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Critical Low Battery</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Critical low battery voltage</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
+          <t>Cannot takeoff in a no-fly zone</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft landing automatically</t>
+          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft returning to home</t>
+          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Critical low battery. Recharge promptly</t>
+          <t>Cannot track subject: Gimbal Tilt too Large</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Critical low battery. Return to home or land promptly</t>
+          <t>Cannot track subject: No image. Please retry</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2158,27 +2158,27 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Critical low battery. Unable to take off. Recharge promptly</t>
+          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
+          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
+          <t>Capture Failed Cannot enter Pano mode</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
+          <t>Capture Failed Shooting interrupted</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Critically Low Voltage. Aircraft will land</t>
+          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
+          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Current elevation above nnn. Fly with caution</t>
+          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2228,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
+          <t>Capture Failed. Shooting is currently not permitted</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2238,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 15.</t>
+          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -2248,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Descending. Exited Visual Avoidance System</t>
+          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Detecting subject</t>
+          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Disable SD card read and write protection or change card</t>
+          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2278,27 +2278,27 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Distance limit enabled. Fly safely</t>
+          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds</t>
+          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Downlink Lost.</t>
+          <t>Command Failed</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11.3s).</t>
+          <t>Command Timeout</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11s).</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -2328,27 +2328,27 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1s).</t>
+          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
+          <t>Compass Error. Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>-1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Compass Error. Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Downward infrared sensor failure. Land as soon as possible</t>
+          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2368,67 +2368,67 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
+          <t>Compass Error. Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Drone is Vibrating</t>
+          <t>Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit</t>
+          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>EMMC is full</t>
+          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>-1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Ensure control sticks are centered during takeoff</t>
+          <t>Compass Error. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
+          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
+          <t>Compass Interference. Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
+          <t>Compass Interference. Temp Max Altitude: nnn</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
+          <t>Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Executing waypoint mission</t>
+          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -2488,47 +2488,47 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Exited Cruise Control mode</t>
+          <t>Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Exited Hyperlapse mode</t>
+          <t>Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Exited Visual Avoidance System.</t>
+          <t>Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Exiting GPS mode: Unknown Error</t>
+          <t>Compass error, calibration required</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -2538,17 +2538,17 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>-1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Compass initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -2558,17 +2558,17 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
+          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>-1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Critical Low Battery</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Critical low battery voltage</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
+          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
+          <t>Critical low battery. Aircraft landing automatically</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>File system error. Change SD card</t>
+          <t>Critical low battery. Aircraft returning to home</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Flight control mode error, cannot start recording QuickShot</t>
+          <t>Critical low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
+          <t>Critical low battery. Return to home or land promptly</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Flight height too low</t>
+          <t>Critical low battery. Unable to take off. Recharge promptly</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -2658,17 +2658,17 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Flight Mode Set to Attitude</t>
+          <t>Critically Low Power. Aircraft Landing</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>-1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
+          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
+          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
+          <t>Critically Low Voltage. Aircraft will land</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -2708,17 +2708,17 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Gimbal calibrating</t>
+          <t>Critically low power. Aircraft is landing</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>-1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
+          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
+          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
+          <t>Current elevation above nnn. Fly with caution</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -2748,27 +2748,27 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Gimbal nnn pan axis endpoint reached</t>
+          <t>Data Recorder File Index is 12.</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>-1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Gimbal nnn pitch axis endpoint reached</t>
+          <t>Data Recorder File Index is 13.</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>-1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Gimbal nnn roll axis endpoint reached</t>
+          <t>Data Recorder File Index is 15.</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -2778,167 +2778,167 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Gimbal Recenter</t>
+          <t>Data Recorder File Index is 17.</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>-1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Gimbal Roll Limit Reached.</t>
+          <t>Data Recorder File Index is 18.</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>-1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
+          <t>Data Recorder File Index is 19.</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>-1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Gimbal Yaw Limit Reached</t>
+          <t>Data Recorder File Index is 2.</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>-1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>GPS module error. Restart aircraft</t>
+          <t>Data Recorder File Index is 21.</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>-1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>GPS Position Mismatch.</t>
+          <t>Data Recorder File Index is 29.</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>-1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
+          <t>Data Recorder File Index is 3.</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>-1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Data Recorder File Index is 30.</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>-1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
+          <t>Data Recorder File Index is 4.</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>-1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
+          <t>Data Recorder File Index is 45.</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>-1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Ground Plain. Safe to Land.</t>
+          <t>Data Recorder File Index is 46.</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>-1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed. Restart aircraft</t>
+          <t>Data Recorder File Index is 5.</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>-1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
+          <t>Data Recorder File Index is 57.</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
+          <t>Data Recorder File Index is 65.</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
+          <t>Data Recorder File Index is 7.</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>-1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
+          <t>Data Recorder File Index is 8.</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>-1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Home Point Recorded.</t>
+          <t>Descending. Exited Visual Avoidance System</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Home Point Recorded. RTH Altitude : 30m.</t>
+          <t>Detecting subject</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Home Point Recorded. Taking off.</t>
+          <t>Disable SD card read and write protection or change card</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Home Point Updated.</t>
+          <t>Distance limit enabled. Fly safely</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Home Point updated. RTH altitude adjusted to nnn</t>
+          <t>Downlink Lost.</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -2988,77 +2988,77 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Image Transmission Recovered. Aircraft is returning home.</t>
+          <t>Downlink Restored (after 0m 0.9s).</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>-1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Image transmission signal lost</t>
+          <t>Downlink Restored (after 0m 1.1s).</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>-1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>IMU attitude restricted. Ensure aircraft is level</t>
+          <t>Downlink Restored (after 0m 1.2s).</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>-1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>IMU warming up. Wait before taking off</t>
+          <t>Downlink Restored (after 0m 1.4s).</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>-1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>In Flight.</t>
+          <t>Downlink Restored (after 0m 1.5s).</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>-1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
+          <t>Downlink Restored (after 0m 1.6s).</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>-1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
+          <t>Downlink Restored (after 0m 1.7s).</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>-1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Landing Canceled.</t>
+          <t>Downlink Restored (after 0m 11.3s).</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Landing gear function restored</t>
+          <t>Downlink Restored (after 0m 11s).</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Landing Gear Paused.</t>
+          <t>Downlink Restored (after 0m 1s).</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3088,57 +3088,57 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Landing Gear Raising. Home Point Recorded</t>
+          <t>Downlink Restored (after 0m 2.2s).</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>-1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
+          <t>Downlink Restored (after 0m 2.3s).</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>-1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Landing.</t>
+          <t>Downlink Restored (after 0m 2.9s).</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>-1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Large Wind Velocity.</t>
+          <t>Downlink Restored (after 0m 5.6s).</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>-1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Lens not connected</t>
+          <t>Downlink Restored (after 0m 5.8s).</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>-1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
+          <t>Downlink data connection lost for nnn seconds</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -3148,17 +3148,17 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
+          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
+          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Loading database failed. Geo-awareness function degraded</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -3178,17 +3178,17 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Low battery voltage. Fly with caution</t>
+          <t>Downward infrared sensor failure. Land as soon as possible</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Low battery. Recharge promptly</t>
+          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Low battery. Return to home promptly</t>
+          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -3218,17 +3218,17 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Low power, please replace the battery</t>
+          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>-1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Low Power. Aircraft is returning to the Home Point.</t>
+          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Low Power. Returning home.</t>
+          <t>Drone is Vibrating</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>During Smart Track, you can control lens zoom within a certain limit</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
+          <t>EMMC is full</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Manned aircraft approaching. Fly at a safe altitude</t>
+          <t>Ensure control sticks are centered during takeoff</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Manned aircraft detected nearby. Fly with caution</t>
+          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Manned aircraft too close. Fly at a safe altitude</t>
+          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
+          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached.</t>
+          <t>Executing waypoint mission</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Min Waypoint Distance: nnn</t>
+          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
+          <t>Exited Cruise Control mode</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
+          <t>Exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Motor error. Check propellers and fly with caution</t>
+          <t>Exited Visual Avoidance System.</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Motor idle. Check whether propellers are installed</t>
+          <t>Exiting GPS mode: Unknown Error</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Motor is Blocked</t>
+          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Motor is idling (lost or missing propeller)</t>
+          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Motor nnn propeller detached or installed incorrectly</t>
+          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Motor nnn stalled. Land aircraft immediately</t>
+          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
+          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Motor or propeller error. Check the motors and propellers.</t>
+          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -3438,27 +3438,27 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
+          <t>Failed to cancel Return to Home</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Motor unable to rotate. Check motor</t>
+          <t>Failed to cancel landing</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Motors Started.</t>
+          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Navigation system error. Restart aircraft</t>
+          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
+          <t>File system error. Change SD card</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
+          <t>Flight Mode Set to Attitude</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -3498,27 +3498,27 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>No SD card. Insert card</t>
+          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>-1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed</t>
+          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>-1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
+          <t>Flight control mode error, cannot start recording QuickShot</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Not Enough Force/ESC Error</t>
+          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled.</t>
+          <t>Flight height too low</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Fly with caution</t>
+          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -3558,57 +3558,57 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance will be disabled in landing.</t>
+          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Obstacle Avoided. Revise Flight Route</t>
+          <t>Forward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
+          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
+          <t>Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>PalmControl in Process</t>
+          <t>Forward Obstacle Sensing not Working.</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Pano shooting completed. The sky part is filled automatically</t>
+          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -3618,17 +3618,17 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Pano successful</t>
+          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>-1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Panorama Captured Successfully</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>GPS Position Mismatch.</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>GPS module error. Restart aircraft</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Precision Landing. Locating Landing Point</t>
+          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Propeller Fell Off</t>
+          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
+          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
+          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -3718,27 +3718,27 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Gimbal Pitch Limit Reached.</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>-1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Propellers not installed</t>
+          <t>Gimbal Pitch Reached Movement Limit</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>-1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Propulsion output has been limited to ensure battery health.</t>
+          <t>Gimbal Recenter</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -3748,7 +3748,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>QuickShot has ended</t>
+          <t>Gimbal Roll Limit Reached.</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Reaching maximum altitude...</t>
+          <t>Gimbal Yaw Limit Reached</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Recenter Gimbal Pan</t>
+          <t>Gimbal calibrating</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -3778,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Rectifying aircraft position</t>
+          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Remote controller assisted takeoff initiated.</t>
+          <t>Gimbal nnn pan axis endpoint reached</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -3808,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Remote controller battery level low. Recharge promptly</t>
+          <t>Gimbal nnn pitch axis endpoint reached</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Remote controller disconnected from aircraft</t>
+          <t>Gimbal nnn roll axis endpoint reached</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -3838,7 +3838,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
+          <t>Ground Plain. Safe to Land.</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -3848,7 +3848,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Remote controller signal lost</t>
+          <t>Gyroscope initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Remote controller signal weak. Adjust remote controller antennas</t>
+          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
+          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -3878,17 +3878,17 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Remote ID functionality normal</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>-1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -3898,37 +3898,37 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Restart aircraft and DJI Fly</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>-1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Returning to the Home Point</t>
+          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>-1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 65FT</t>
+          <t>High wind velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>-1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Right Dial Locked. Lightly press to adjust.</t>
+          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -3938,27 +3938,27 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>RTH : Ascending to RTH altitude.</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>-1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>RTH : Cruise.</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>-1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>RTH : Heading alignment.</t>
+          <t>Home Point Recorded.</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -3968,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>RTH : Preascending.</t>
+          <t>Home Point Recorded. RTH Altitude : 30m.</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
+          <t>Home Point Recorded. Taking off.</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>RTH altitude adjusted to nnn</t>
+          <t>Home Point Updated.</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -3998,27 +3998,27 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>-1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Running Flight Simulator. Restart aircraft to take off</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>-1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Satellite positioning off. Fly with Caution.</t>
+          <t>Home Point updated. RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -4028,7 +4028,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>SD card malfunction. Change card</t>
+          <t>IMU attitude restricted. Ensure aircraft is level</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -4038,27 +4038,27 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>SD card speed low. Change card</t>
+          <t>IMU calibration required. Calibrate IMU</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>-1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
+          <t>IMU not calibrated. Calibrate IMU</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>-1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Sensing system is blocked or too close to the obstacle.</t>
+          <t>IMU warming up. Wait before taking off</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -4068,7 +4068,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Set Flight Mode to GPS to fly safe</t>
+          <t>Image Transmission Recovered. Aircraft is returning home.</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -4078,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Setting new Maximum Flight Altitude to nnn</t>
+          <t>Image transmission signal lost</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -4088,27 +4088,27 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Setting new Return-To-Home altitude to nnn</t>
+          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>-1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Signal Lost. Aircraft returning to Home Point</t>
+          <t>Impact detected. Restart aircraft</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>-1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
+          <t>In Flight.</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -4118,7 +4118,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Sprayer turned ON</t>
+          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -4128,17 +4128,17 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Starting Smart Track</t>
+          <t>Insufficient SD card space. Change card or delete files</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>-1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Strong Aircraft Interference</t>
+          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -4148,7 +4148,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Strong Interference Detected. Be careful when flying long distances.</t>
+          <t>Landing Canceled.</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -4158,27 +4158,27 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Strong Interference Now. Fly with caution.</t>
+          <t>Landing Gear Lowered.</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>-1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
+          <t>Landing Gear Lowering.</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>-1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
+          <t>Landing Gear Paused.</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -4188,27 +4188,27 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Strong Interference. Fly with caution.</t>
+          <t>Landing Gear Raised.</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>-1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Strong wind. Fly with caution</t>
+          <t>Landing Gear Raising.</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>-1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution.</t>
+          <t>Landing Gear Raising. Home Point Recorded</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -4218,7 +4218,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -4228,7 +4228,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Subject lost. Reselect subject</t>
+          <t>Landing gear function restored</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -4238,27 +4238,27 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Subject lost. Searching …</t>
+          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>-1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Subject too Large. Move Away and retry</t>
+          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>-1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Subject too Small. Get Closer and retry</t>
+          <t>Landing.</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -4268,7 +4268,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Switched to A (Attitude)-mode</t>
+          <t>Large Wind Velocity.</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -4278,17 +4278,17 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
+          <t>Large Wind Velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>-1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Switched to P (Positioning)-mode.</t>
+          <t>Lens not connected</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -4298,7 +4298,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Switched to S (Sport)-mode.</t>
+          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -4308,7 +4308,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Switched to T (Tripod)-mode.</t>
+          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -4318,7 +4318,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Take off and retry this function.</t>
+          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -4328,7 +4328,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Take off in P-Mode</t>
+          <t>Loading database failed. Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -4338,7 +4338,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Taking Off.</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -4348,7 +4348,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
+          <t>Low Power. Aircraft is returning to the Home Point.</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -4358,7 +4358,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Tap to choose a valid zone.</t>
+          <t>Low Power. Returning home.</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -4368,7 +4368,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Target lost. QuickShots stopped</t>
+          <t>Low battery voltage. Fly with caution</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -4378,7 +4378,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>The aircraft is flying back to the start point</t>
+          <t>Low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -4388,7 +4388,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
+          <t>Low battery. Return to home promptly</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -4398,7 +4398,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
+          <t>Low power, please replace the battery</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -4408,7 +4408,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -4418,7 +4418,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -4428,7 +4428,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
+          <t>Manned aircraft approaching. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -4438,7 +4438,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Unable to take off</t>
+          <t>Manned aircraft detected nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -4448,7 +4448,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
+          <t>Manned aircraft too close. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -4458,7 +4458,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
+          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -4468,27 +4468,27 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Upward Obstacle Detected</t>
+          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
+          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>-1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked. Fly with caution</t>
+          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -4498,7 +4498,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Vision systems and obstacle avoidance disabled</t>
+          <t>Maximum Flight Altitude Reached.</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -4508,37 +4508,37 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate. Fly with caution</t>
+          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>-1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Warning</t>
+          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>-1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
+          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>-1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Warning: Command Failed</t>
+          <t>Min Waypoint Distance: nnn</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -4548,7 +4548,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Warning: Command Timeout</t>
+          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -4558,7 +4558,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery. Please change the battery</t>
+          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -4568,7 +4568,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Warning: Motor Obstructed</t>
+          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -4578,7 +4578,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
+          <t>Motor error. Check propellers and fly with caution</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -4588,7 +4588,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Waypoint Mission Paused</t>
+          <t>Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -4598,7 +4598,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Waypoint Mission Resumed</t>
+          <t>Motor is Blocked</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -4608,17 +4608,17 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Waypoint Mission Start</t>
+          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>-1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
+          <t>Motor is idling (lost or missing propeller)</t>
         </is>
       </c>
       <c r="B419" t="n">
@@ -4628,7 +4628,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
+          <t>Motor nnn propeller detached or installed incorrectly</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -4638,7 +4638,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Weak image transmission signal. Adjust antennas</t>
+          <t>Motor nnn stalled. Land aircraft immediately</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -4648,7 +4648,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antenna and avoid signal block.</t>
+          <t>Motor or propeller error. Check the motors and propellers.</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -4658,7 +4658,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antennas</t>
+          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -4668,27 +4668,27 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>-1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Yaw Error.</t>
+          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>-1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
+          <t>Motor unable to rotate. Check motor</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -4698,7 +4698,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
+          <t>Motors Started.</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -4708,1551 +4708,1551 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
+          <t>Navigation system error. Restart aircraft</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
+          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller A</t>
+          <t>No GPS signal. Unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller B</t>
+          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Aircraft is flying back to the start point</t>
+          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the starting point</t>
+          <t>No SD card. Insert card</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Not Allowed to change Aircraft Mode. If needed</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Not Enough Force/ESC Error</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Object too close to laser rangefinder</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Object too far for laser rangefinder</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Obstacle Avoidance disabled. Fly with caution</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>At least two Waypoints are needed</t>
+          <t>Obstacle Avoidance will be disabled in landing.</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>At Least Two Waypoints Required</t>
+          <t>Obstacle Avoided. Revise Flight Route</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
+          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
+          <t>PalmControl in Process</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
+          <t>Pano shooting completed. The sky part is filled automatically</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Pano successful</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Panorama Captured Successfully</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning.</t>
+          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning.</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Responding</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Working.</t>
+          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Precision Landing. Correcting Landing Position.</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>9</v>
+        <v>52</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Precision Landing. Locating Landing Point</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
+          <t>Precision Landing. Rectifying aircraft position.</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
+          <t>Propeller Fell Off</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Camera Settings ActiveTrack Optimized</t>
+          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted to ActiveTrack</t>
+          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Cancel Landing Failed</t>
+          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Failed to cancel landing</t>
+          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Cancel Return-to-Home Failed</t>
+          <t>Propellers not installed</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>13</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Failed to cancel Return to Home</t>
+          <t>Propulsion output has been limited to ensure battery health.</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>13</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
+          <t>QuickShot has ended</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>14</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
+          <t>RTH : Ascending to RTH altitude.</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>14</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
+          <t>RTH : Cruise.</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>15</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
+          <t>RTH : Heading alignment.</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>15</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>RTH : Preascending.</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>16</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>RTH Altitude : 65FT.</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
+          <t>RTH Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>17</v>
+        <v>54</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
+          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>17</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Compass data error. Please contact DJI Support</t>
+          <t>RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>18</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>RTK Base Station Data Not Received</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
+          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>18</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Compass direction is not the same with IMU</t>
+          <t>Reaching maximum altitude...</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>19</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Compass Error. Compass direction is not the same with IMU</t>
+          <t>Recenter Gimbal Pan</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>19</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Rectifying aircraft position</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Compass Error. Compass disconnected</t>
+          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>21</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass disconnected</t>
+          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>21</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Remote ID functionality normal</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>22</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
+          <t>Remote controller assisted takeoff initiated.</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>22</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Remote controller battery level low. Recharge promptly</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>22</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Critically low power. Aircraft is landing</t>
+          <t>Remote controller disconnected from aircraft</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>23</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing</t>
+          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>23</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 12.</t>
+          <t>Remote controller signal lost</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>24</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 13.</t>
+          <t>Remote controller signal weak. Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>24</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 17.</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>25</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 18.</t>
+          <t>Restart aircraft and DJI Fly</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>25</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 19.</t>
+          <t>Return-to-Home Altitude : 65FT</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>25</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 21.</t>
+          <t>Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 2.</t>
+          <t>Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 3.</t>
+          <t>Returning to the Home Point</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>27</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 4.</t>
+          <t>Right Dial Locked. Lightly press to adjust.</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>27</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 5.</t>
+          <t>Running Flight Simulator. Restart aircraft to take off</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>27</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 29.</t>
+          <t>SD card full. Change card or delete files</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 30.</t>
+          <t>SD card malfunction. Change card</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>26</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 45.</t>
+          <t>SD card speed low. Change card</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>29</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 46.</t>
+          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>29</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 57.</t>
+          <t>Satellite positioning off. Fly with Caution.</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>30</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 65.</t>
+          <t>Sensing system is blocked or too close to the obstacle.</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>30</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 7.</t>
+          <t>Set Flight Mode to GPS to fly safe</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>28</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 8.</t>
+          <t>Setting new Maximum Flight Altitude to nnn</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>28</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 0.9s).</t>
+          <t>Setting new Return-To-Home altitude to nnn</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>31</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.1s).</t>
+          <t>Signal Lost. Aircraft returning to Home Point</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>31</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.2s).</t>
+          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>31</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.4s).</t>
+          <t>Sprayer turned ON</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>31</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.5s).</t>
+          <t>Starting Smart Track</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>31</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.6s).</t>
+          <t>Strong Aircraft Interference</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>31</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.7s).</t>
+          <t>Strong Interference Detected. Be careful when flying long distances.</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>31</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.2s).</t>
+          <t>Strong Interference Now. Fly with caution.</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>32</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.3s).</t>
+          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>32</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.9s).</t>
+          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>32</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.6s).</t>
+          <t>Strong Interference. Fly with caution.</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>33</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.8s).</t>
+          <t>Strong Remote Controller Interference</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Strong Remote Controller Interference.</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Vision sensor error. Contact DJI Support for assistance</t>
+          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>Strong wind. Fly with caution</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>35</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
+          <t>Strong wireless interference. Please fly with caution.</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>35</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Limit Reached.</t>
+          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>36</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Reached Movement Limit</t>
+          <t>Subject lost. Reselect subject</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>36</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
+          <t>Subject lost. Searching …</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>37</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>37</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>38</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution.</t>
+          <t>Switched to A (Attitude)-mode</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>38</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Large Wind Velocity. Fly with caution.</t>
+          <t>Switched to P (Positioning)-mode.</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>38</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
+          <t>Switched to S (Sport)-mode.</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>39</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
+          <t>Switched to T (Tripod)-mode.</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>39</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
+          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>39</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
+          <t>Take off and retry this function.</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>39</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
+          <t>Take off in P-Mode</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>40</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Impact detected. Restart aircraft</t>
+          <t>Taking Off.</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>40</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>IMU calibration required. Calibrate IMU</t>
+          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>41</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>IMU not calibrated. Calibrate IMU</t>
+          <t>Tap the screen lightly to focus.</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Insufficient SD card space. Change card or delete files</t>
+          <t>Tap the screen to focus.</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>SD card full. Change card or delete files</t>
+          <t>Tap to choose a valid zone.</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>42</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Landing Gear Lowered.</t>
+          <t>Target lost. QuickShots stopped</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>43</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Landing Gear Lowering.</t>
+          <t>The aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>43</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>44</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>44</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>44</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Landing Gear Raised.</t>
+          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Landing Gear Raising.</t>
+          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Unable to take off</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>46</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>46</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
+          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>47</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
+          <t>Upward Obstacle Detected</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>47</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
+          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>47</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
+          <t>Vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
+          <t>Vision sensor(s) blocked. Fly with caution</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>48</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Vision systems and obstacle avoidance disabled</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>48</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>48</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>49</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to hover. Fly with caution</t>
+          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Object too close to laser rangefinder</t>
+          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>50</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Object too far for laser rangefinder</t>
+          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Warning: Command Failed</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>51</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
+          <t>Warning: Command Timeout</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>51</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Precision Landing. Correcting Landing Position.</t>
+          <t>Warning: Critically low battery. Please change the battery</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>52</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Precision Landing. Rectifying aircraft position.</t>
+          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT</t>
+          <t>Warning: Motor Obstructed</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>53</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT.</t>
+          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>53</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>RTH Altitude : 65FT.</t>
+          <t>Waypoint Mission Paused</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>54</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT.</t>
+          <t>Waypoint Mission Resumed</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>54</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received</t>
+          <t>Waypoint Mission Start</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>55</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
+          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>55</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference</t>
+          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>56</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference.</t>
+          <t>Weak image transmission signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>56</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
+          <t>Weak signal. Adjust antenna and avoid signal block.</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>57</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Weak signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>57</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Tap the screen lightly to focus.</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>Tap the screen to focus.</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>59</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Yaw Error.</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>59</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
+          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>60</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
+          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>61</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="583">
